--- a/biology/Botanique/Boletus_pallidoroseus/Boletus_pallidoroseus.xlsx
+++ b/biology/Botanique/Boletus_pallidoroseus/Boletus_pallidoroseus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boletinellus pallidoroseus, est une espèce de champignons basidiomycètes du genre Boletus de la famille des Boletaceae. Il ressemble à un hybride entre Boletus bicolor et Boletus pseudosensibilis. Cette espèce assez récemment décrite se caractérise par des couleurs rose, bleu comme des ecchymoses, et présente une réaction verte à l'ammoniaque.  On le trouve en Caroline du Nord, Virginie-Occidentale[1], dans l'État de New York[2], et dans l'Illinois.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boletinellus pallidoroseus, est une espèce de champignons basidiomycètes du genre Boletus de la famille des Boletaceae. Il ressemble à un hybride entre Boletus bicolor et Boletus pseudosensibilis. Cette espèce assez récemment décrite se caractérise par des couleurs rose, bleu comme des ecchymoses, et présente une réaction verte à l'ammoniaque.  On le trouve en Caroline du Nord, Virginie-Occidentale, dans l'État de New York, et dans l'Illinois.
 </t>
         </is>
       </c>
@@ -513,23 +525,273 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hyménohore
-Hyménohore de  6 à 17 cm; convexe, devenant largement convexe ou presque plat et sec; lisse ou finement veloutée par endroits; rose pur quand il est jeune, devenant beige rosé.
-Hyménium
-Surface des pores: jaune, devenant jaune olive; ecchymoses bleu; pores circulaires, 1-2 par mm; des tubes superficiels de moins de 1 cm de profondeur.
-Stipe
-Le stipe va de 5-8 cm de long, de 2-3 cm d'épaisseur, plus ou moins égaux, non réticulée, ou légèrement à l'apex; assez lisse, jaunâtre au-dessus; rose clair en dessous, le bleu des ecchymoses, puis, lentement, brunâtre; le mycélium basal est blanchâtre.
-Chair
-Chair blanche à jaunâtre dans l'hyménophore, jaune dans je stipe. Elle bleuit dans les endroits où il a été tranché.
-Odeur et goût
-Odeur proche du bouillon de bœuf, goût fade.
-Spores
-Sporée : brun olive. Caractéristiques microscopiques : Spores de 9-12 x 3.5 à 5.5 μ; lisse; subfusiforme; jaune dans le KOH.
-Habitat
-Mycorhiziens avec les feuillus - peut-être exclusivement de chênes; seul ou dispersés, parfois grégaire. 
+          <t>Hyménohore</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyménohore de  6 à 17 cm; convexe, devenant largement convexe ou presque plat et sec; lisse ou finement veloutée par endroits; rose pur quand il est jeune, devenant beige rosé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Boletus_pallidoroseus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boletus_pallidoroseus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Hyménium</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Surface des pores: jaune, devenant jaune olive; ecchymoses bleu; pores circulaires, 1-2 par mm; des tubes superficiels de moins de 1 cm de profondeur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Boletus_pallidoroseus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boletus_pallidoroseus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Stipe</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le stipe va de 5-8 cm de long, de 2-3 cm d'épaisseur, plus ou moins égaux, non réticulée, ou légèrement à l'apex; assez lisse, jaunâtre au-dessus; rose clair en dessous, le bleu des ecchymoses, puis, lentement, brunâtre; le mycélium basal est blanchâtre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Boletus_pallidoroseus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boletus_pallidoroseus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Chair</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chair blanche à jaunâtre dans l'hyménophore, jaune dans je stipe. Elle bleuit dans les endroits où il a été tranché.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Boletus_pallidoroseus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boletus_pallidoroseus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Odeur et goût</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Odeur proche du bouillon de bœuf, goût fade.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Boletus_pallidoroseus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boletus_pallidoroseus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Spores</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sporée : brun olive. Caractéristiques microscopiques : Spores de 9-12 x 3.5 à 5.5 μ; lisse; subfusiforme; jaune dans le KOH.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Boletus_pallidoroseus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boletus_pallidoroseus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mycorhiziens avec les feuillus - peut-être exclusivement de chênes; seul ou dispersés, parfois grégaire. 
 Connu dans les états de New York, en Virginie occidentale, Caroline du Nord, et dans l'Illinois.
-Saison
-Été et automne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Boletus_pallidoroseus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boletus_pallidoroseus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Saison</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Été et automne.
 </t>
         </is>
       </c>
